--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_固定明細_複数シート_数式維持.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_固定明細_複数シート_数式維持.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\Downloads\DioDocsExcelReport2-master\DioDocsExcelReport2-master\DioDocsExcelReport2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592C883C-59E2-44F4-97AF-3ABDADE2ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A02B0-05B9-4070-8BFE-6BBECE5DCD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="1764" windowWidth="31596" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23604" yWindow="5976" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.customer.companyname}} " sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'{{ds.customer.companyname}} '!$A$1:$I$39</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -272,19 +269,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>{{==E39*0.1}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{==E39+G39}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{==SUM(G18)}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>{{==E18*F18}}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{{==E39*0.1}}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{{==E39+G39}}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{{==SUM(G18)}}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -319,41 +316,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <sz val="20"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -591,13 +588,14 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,27 +604,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,28 +636,13 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,12 +654,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1019,421 +1016,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332877D3-1328-4DD3-AF4F-4D9E3F753AE9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="10.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H2" s="7" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>21-1714</v>
-      </c>
-      <c r="I3" s="9" t="s">
+        <v>24-1714</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="G9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="G10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="G11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F14" s="2"/>
-      <c r="G14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="12"/>
+      <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="21" t="s">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C38" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="37"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="36" t="s">
         <v>37</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1506,15 +1506,8 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="68" max="8" man="1"/>
-    <brk id="118" max="8" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="53" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
